--- a/spliced/walkingToRunning/2023-03-27_19-44-36/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-44-36/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4044676125049591</v>
+        <v>-1.420729875564575</v>
       </c>
       <c r="B2" t="n">
-        <v>1.176185131072998</v>
+        <v>0.4241084158420563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6530070900917053</v>
+        <v>0.8468852639198303</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.420729875564575</v>
+        <v>-0.8428239226341248</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4241084158420563</v>
+        <v>1.781787991523743</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8468852639198303</v>
+        <v>1.107874989509582</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8428239226341248</v>
+        <v>2.085587978363037</v>
       </c>
       <c r="B4" t="n">
-        <v>1.781787991523743</v>
+        <v>-0.4573979377746582</v>
       </c>
       <c r="C4" t="n">
-        <v>1.107874989509582</v>
+        <v>-1.845570683479309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.085587978363037</v>
+        <v>1.892242550849914</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.4573979377746582</v>
+        <v>-2.681137561798096</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.845570683479309</v>
+        <v>-5.550560474395752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.892242550849914</v>
+        <v>2.531933784484864</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.681137561798096</v>
+        <v>1.24702525138855</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.550560474395752</v>
+        <v>-2.802178144454956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2.531933784484864</v>
+        <v>2.003562688827514</v>
       </c>
       <c r="B7" t="n">
-        <v>1.24702525138855</v>
+        <v>2.79219126701355</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.802178144454956</v>
+        <v>-3.079679489135742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.003562688827514</v>
+        <v>-6.388058185577393</v>
       </c>
       <c r="B8" t="n">
-        <v>2.79219126701355</v>
+        <v>-2.879809379577637</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.079679489135742</v>
+        <v>3.848800420761109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.388058185577393</v>
+        <v>-14.3317346572876</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.879809379577637</v>
+        <v>-11.627760887146</v>
       </c>
       <c r="C9" t="n">
-        <v>3.848800420761109</v>
+        <v>0.5219795703887939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-14.3317346572876</v>
+        <v>6.343982696533203</v>
       </c>
       <c r="B10" t="n">
-        <v>-11.627760887146</v>
+        <v>-4.255598545074463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5219795703887939</v>
+        <v>-2.953978300094604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.343982696533203</v>
+        <v>2.917559623718262</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.255598545074463</v>
+        <v>-4.095808506011963</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.953978300094604</v>
+        <v>-0.09321063756942739</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.917559623718262</v>
+        <v>7.193531036376953</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.095808506011963</v>
+        <v>-2.798849105834961</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.09321063756942739</v>
+        <v>-2.648780107498169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7.193531036376953</v>
+        <v>0.068509817123413</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.798849105834961</v>
+        <v>-2.387657165527344</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.648780107498169</v>
+        <v>1.848233819007873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.068509817123413</v>
+        <v>-5.729191780090332</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.387657165527344</v>
+        <v>-0.3087935447692871</v>
       </c>
       <c r="C14" t="n">
-        <v>1.848233819007873</v>
+        <v>0.4756405651569366</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-5.729191780090332</v>
+        <v>-3.537942886352539</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3087935447692871</v>
+        <v>-2.56502366065979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4756405651569366</v>
+        <v>-3.619768619537354</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.537942886352539</v>
+        <v>3.089067220687866</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.56502366065979</v>
+        <v>14.31196117401123</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.619768619537354</v>
+        <v>-0.1933455020189285</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.089067220687866</v>
+        <v>3.182277917861938</v>
       </c>
       <c r="B17" t="n">
-        <v>14.31196117401123</v>
+        <v>-2.187387466430664</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1933455020189285</v>
+        <v>-2.911900281906128</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.182277917861938</v>
+        <v>3.544467687606812</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.187387466430664</v>
+        <v>-1.478453874588013</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.911900281906128</v>
+        <v>-2.32813549041748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.544467687606812</v>
+        <v>-2.930742263793945</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.478453874588013</v>
+        <v>2.399108648300171</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.32813549041748</v>
+        <v>2.079396247863769</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.930742263793945</v>
+        <v>-15.79913711547852</v>
       </c>
       <c r="B20" t="n">
-        <v>2.399108648300171</v>
+        <v>-0.4046673476696014</v>
       </c>
       <c r="C20" t="n">
-        <v>2.079396247863769</v>
+        <v>7.474960803985596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-15.79913711547852</v>
+        <v>6.207096099853516</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.4046673476696014</v>
+        <v>-14.30157470703125</v>
       </c>
       <c r="C21" t="n">
-        <v>7.474960803985596</v>
+        <v>1.141430854797363</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2.070674419403076</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-3.818307399749756</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.332929134368896</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12.43622970581055</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.804691195487976</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.571514368057251</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-4.415188312530518</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.631336450576782</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.9896306991577148</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-4.100935459136963</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.459545493125916</v>
+      </c>
+      <c r="C25" t="n">
+        <v>7.553257465362549</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-3.94806981086731</v>
+      </c>
+      <c r="B26" t="n">
+        <v>8.382166862487793</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.697782278060913</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>4.418517112731934</v>
+      </c>
+      <c r="B27" t="n">
+        <v>15.49866580963135</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-7.229417324066162</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.811815142631531</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-5.760817050933838</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.106345176696777</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6.468618869781494</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.199088335037231</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-6.144978046417236</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-2.402371168136597</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.291517019271851</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.192030906677246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-12.0989408493042</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-13.58198833465576</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.806971788406372</v>
       </c>
     </row>
   </sheetData>
